--- a/natmiOut/OldD4/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H2">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I2">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J2">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.933435277869936</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N2">
-        <v>0.933435277869936</v>
+        <v>3.018767</v>
       </c>
       <c r="O2">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="P2">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="Q2">
-        <v>89.35318478799996</v>
+        <v>97.22447886365066</v>
       </c>
       <c r="R2">
-        <v>89.35318478799996</v>
+        <v>875.020309772856</v>
       </c>
       <c r="S2">
-        <v>0.01047860882114886</v>
+        <v>0.008447124401645963</v>
       </c>
       <c r="T2">
-        <v>0.01047860882114886</v>
+        <v>0.008718050039544666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H3">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I3">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J3">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.69290501631313</v>
+        <v>7.646551333333332</v>
       </c>
       <c r="N3">
-        <v>4.69290501631313</v>
+        <v>22.939654</v>
       </c>
       <c r="O3">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="P3">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="Q3">
-        <v>449.2287993143404</v>
+        <v>738.8102180335411</v>
       </c>
       <c r="R3">
-        <v>449.2287993143404</v>
+        <v>6649.291962301871</v>
       </c>
       <c r="S3">
-        <v>0.05268186993421577</v>
+        <v>0.0641898202374398</v>
       </c>
       <c r="T3">
-        <v>0.05268186993421577</v>
+        <v>0.06624858806984471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.725099432604</v>
+        <v>96.62005599999999</v>
       </c>
       <c r="H4">
-        <v>95.725099432604</v>
+        <v>289.860168</v>
       </c>
       <c r="I4">
-        <v>0.2181972921814483</v>
+        <v>0.2116037895476247</v>
       </c>
       <c r="J4">
-        <v>0.2181972921814483</v>
+        <v>0.2183905833651517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8106912368334</v>
+        <v>16.55429333333333</v>
       </c>
       <c r="N4">
-        <v>13.8106912368334</v>
+        <v>49.66287999999999</v>
       </c>
       <c r="O4">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="P4">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="Q4">
-        <v>1322.02979187887</v>
+        <v>1599.476748907093</v>
       </c>
       <c r="R4">
-        <v>1322.02979187887</v>
+        <v>14395.29074016384</v>
       </c>
       <c r="S4">
-        <v>0.1550368134260836</v>
+        <v>0.1389668449085389</v>
       </c>
       <c r="T4">
-        <v>0.1550368134260836</v>
+        <v>0.1434239452557624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H5">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I5">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J5">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.933435277869936</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N5">
-        <v>0.933435277869936</v>
+        <v>3.018767</v>
       </c>
       <c r="O5">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="P5">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="Q5">
-        <v>103.9274172347463</v>
+        <v>123.1193954413581</v>
       </c>
       <c r="R5">
-        <v>103.9274172347463</v>
+        <v>1108.074558972223</v>
       </c>
       <c r="S5">
-        <v>0.01218775529466617</v>
+        <v>0.01069694444962895</v>
       </c>
       <c r="T5">
-        <v>0.01218775529466617</v>
+        <v>0.01104002883678654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H6">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I6">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J6">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.69290501631313</v>
+        <v>7.646551333333332</v>
       </c>
       <c r="N6">
-        <v>4.69290501631313</v>
+        <v>22.939654</v>
       </c>
       <c r="O6">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="P6">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="Q6">
-        <v>522.5016765879802</v>
+        <v>935.5860628243028</v>
       </c>
       <c r="R6">
-        <v>522.5016765879802</v>
+        <v>8420.274565418724</v>
       </c>
       <c r="S6">
-        <v>0.06127471214764332</v>
+        <v>0.08128623525158069</v>
       </c>
       <c r="T6">
-        <v>0.06127471214764332</v>
+        <v>0.08389333846100272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.338643073256</v>
+        <v>122.3539896666667</v>
       </c>
       <c r="H7">
-        <v>111.338643073256</v>
+        <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2537870483053972</v>
+        <v>0.2679626668787852</v>
       </c>
       <c r="J7">
-        <v>0.2537870483053972</v>
+        <v>0.2765570657541026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8106912368334</v>
+        <v>16.55429333333333</v>
       </c>
       <c r="N7">
-        <v>13.8106912368334</v>
+        <v>49.66287999999999</v>
       </c>
       <c r="O7">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="P7">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="Q7">
-        <v>1537.663622212738</v>
+        <v>2025.483835445635</v>
       </c>
       <c r="R7">
-        <v>1537.663622212738</v>
+        <v>18229.35451901072</v>
       </c>
       <c r="S7">
-        <v>0.1803245808630876</v>
+        <v>0.1759794871775756</v>
       </c>
       <c r="T7">
-        <v>0.1803245808630876</v>
+        <v>0.1816236984563133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H8">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I8">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J8">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.933435277869936</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N8">
-        <v>0.933435277869936</v>
+        <v>3.018767</v>
       </c>
       <c r="O8">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="P8">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="Q8">
-        <v>77.50576545974668</v>
+        <v>84.26771925054211</v>
       </c>
       <c r="R8">
-        <v>77.50576545974668</v>
+        <v>758.409473254879</v>
       </c>
       <c r="S8">
-        <v>0.009089240630463435</v>
+        <v>0.007321406253568863</v>
       </c>
       <c r="T8">
-        <v>0.009089240630463435</v>
+        <v>0.007556226597777027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H9">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I9">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J9">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.69290501631313</v>
+        <v>7.646551333333332</v>
       </c>
       <c r="N9">
-        <v>4.69290501631313</v>
+        <v>22.939654</v>
       </c>
       <c r="O9">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="P9">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="Q9">
-        <v>389.6651478067615</v>
+        <v>640.3516147409108</v>
       </c>
       <c r="R9">
-        <v>389.6651478067615</v>
+        <v>5763.164532668197</v>
       </c>
       <c r="S9">
-        <v>0.04569673330379792</v>
+        <v>0.05563547178377992</v>
       </c>
       <c r="T9">
-        <v>0.04569673330379792</v>
+        <v>0.05741987496835699</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.0328221969625</v>
+        <v>83.74384566666667</v>
       </c>
       <c r="H10">
-        <v>83.0328221969625</v>
+        <v>251.231537</v>
       </c>
       <c r="I10">
-        <v>0.189266316493269</v>
+        <v>0.1834041070557659</v>
       </c>
       <c r="J10">
-        <v>0.189266316493269</v>
+        <v>0.1892864490617203</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8106912368334</v>
+        <v>16.55429333333333</v>
       </c>
       <c r="N10">
-        <v>13.8106912368334</v>
+        <v>49.66287999999999</v>
       </c>
       <c r="O10">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="P10">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="Q10">
-        <v>1146.740669885136</v>
+        <v>1386.320186027395</v>
       </c>
       <c r="R10">
-        <v>1146.740669885136</v>
+        <v>12476.88167424656</v>
       </c>
       <c r="S10">
-        <v>0.1344803425590076</v>
+        <v>0.1204472290184171</v>
       </c>
       <c r="T10">
-        <v>0.1344803425590076</v>
+        <v>0.1243103474955863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H11">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I11">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J11">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.933435277869936</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N11">
-        <v>0.933435277869936</v>
+        <v>3.018767</v>
       </c>
       <c r="O11">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="P11">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="Q11">
-        <v>98.99620279573173</v>
+        <v>112.0176064327353</v>
       </c>
       <c r="R11">
-        <v>98.99620279573173</v>
+        <v>1008.158457894618</v>
       </c>
       <c r="S11">
-        <v>0.01160946290092293</v>
+        <v>0.009732391140290272</v>
       </c>
       <c r="T11">
-        <v>0.01160946290092293</v>
+        <v>0.01004453929303312</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H12">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I12">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J12">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.69290501631313</v>
+        <v>7.646551333333332</v>
       </c>
       <c r="N12">
-        <v>4.69290501631313</v>
+        <v>22.939654</v>
       </c>
       <c r="O12">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="P12">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="Q12">
-        <v>497.7096834782106</v>
+        <v>851.2234079261906</v>
       </c>
       <c r="R12">
-        <v>497.7096834782106</v>
+        <v>7661.010671335715</v>
       </c>
       <c r="S12">
-        <v>0.05836731048859489</v>
+        <v>0.07395658073343331</v>
       </c>
       <c r="T12">
-        <v>0.05836731048859489</v>
+        <v>0.07632859905106433</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>106.055776059415</v>
+        <v>111.321218</v>
       </c>
       <c r="H13">
-        <v>106.055776059415</v>
+        <v>333.963654</v>
       </c>
       <c r="I13">
-        <v>0.2417451984226883</v>
+        <v>0.2438002270031519</v>
       </c>
       <c r="J13">
-        <v>0.2417451984226883</v>
+        <v>0.2516196610353779</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.8106912368334</v>
+        <v>16.55429333333333</v>
       </c>
       <c r="N13">
-        <v>13.8106912368334</v>
+        <v>49.66287999999999</v>
       </c>
       <c r="O13">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="P13">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="Q13">
-        <v>1464.703577039328</v>
+        <v>1842.844096995946</v>
       </c>
       <c r="R13">
-        <v>1464.703577039328</v>
+        <v>16585.59687296352</v>
       </c>
       <c r="S13">
-        <v>0.1717684250331705</v>
+        <v>0.1601112551294283</v>
       </c>
       <c r="T13">
-        <v>0.1717684250331705</v>
+        <v>0.1652465226912804</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H14">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I14">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J14">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.933435277869936</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N14">
-        <v>0.933435277869936</v>
+        <v>3.018767</v>
       </c>
       <c r="O14">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="P14">
-        <v>0.04802355114670752</v>
+        <v>0.03991953272530977</v>
       </c>
       <c r="Q14">
-        <v>39.72381678406633</v>
+        <v>42.835533944415</v>
       </c>
       <c r="R14">
-        <v>39.72381678406633</v>
+        <v>257.01320366649</v>
       </c>
       <c r="S14">
-        <v>0.004658483499506117</v>
+        <v>0.003721666480175725</v>
       </c>
       <c r="T14">
-        <v>0.004658483499506117</v>
+        <v>0.00256068795816841</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H15">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I15">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J15">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.69290501631313</v>
+        <v>7.646551333333332</v>
       </c>
       <c r="N15">
-        <v>4.69290501631313</v>
+        <v>22.939654</v>
       </c>
       <c r="O15">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="P15">
-        <v>0.2414414469012138</v>
+        <v>0.3033491053003703</v>
       </c>
       <c r="Q15">
-        <v>199.7140063941575</v>
+        <v>325.5078406482299</v>
       </c>
       <c r="R15">
-        <v>199.7140063941575</v>
+        <v>1953.04704388938</v>
       </c>
       <c r="S15">
-        <v>0.02342082102696188</v>
+        <v>0.02828099729413664</v>
       </c>
       <c r="T15">
-        <v>0.02342082102696188</v>
+        <v>0.01945870475010155</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.5565839708936</v>
+        <v>42.569235</v>
       </c>
       <c r="H16">
-        <v>42.5565839708936</v>
+        <v>85.13847</v>
       </c>
       <c r="I16">
-        <v>0.09700414459719731</v>
+        <v>0.09322920951467238</v>
       </c>
       <c r="J16">
-        <v>0.09700414459719731</v>
+        <v>0.06414624078364733</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.8106912368334</v>
+        <v>16.55429333333333</v>
       </c>
       <c r="N16">
-        <v>13.8106912368334</v>
+        <v>49.66287999999999</v>
       </c>
       <c r="O16">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="P16">
-        <v>0.7105350019520786</v>
+        <v>0.6567313619743199</v>
       </c>
       <c r="Q16">
-        <v>587.7358413163849</v>
+        <v>704.7036031655998</v>
       </c>
       <c r="R16">
-        <v>587.7358413163849</v>
+        <v>4228.2216189936</v>
       </c>
       <c r="S16">
-        <v>0.06892484007072931</v>
+        <v>0.06122654574036002</v>
       </c>
       <c r="T16">
-        <v>0.06892484007072931</v>
+        <v>0.04212684807537738</v>
       </c>
     </row>
   </sheetData>
